--- a/samples_wind/plot/date_availability_forsampels.xlsx
+++ b/samples_wind/plot/date_availability_forsampels.xlsx
@@ -1113,13 +1113,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>13373</v>
+        <v>14837</v>
       </c>
       <c r="D24" t="n">
         <v>3367</v>
       </c>
       <c r="E24" t="n">
-        <v>10006</v>
+        <v>11470</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1142,13 +1142,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>13340</v>
+        <v>14804</v>
       </c>
       <c r="D25" t="n">
         <v>3367</v>
       </c>
       <c r="E25" t="n">
-        <v>9973</v>
+        <v>11437</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1171,13 +1171,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>13110</v>
+        <v>14574</v>
       </c>
       <c r="D26" t="n">
         <v>3055</v>
       </c>
       <c r="E26" t="n">
-        <v>10055</v>
+        <v>11519</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1229,13 +1229,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>13080</v>
+        <v>14544</v>
       </c>
       <c r="D28" t="n">
         <v>3367</v>
       </c>
       <c r="E28" t="n">
-        <v>9713</v>
+        <v>11177</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1258,13 +1258,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>13287</v>
+        <v>14751</v>
       </c>
       <c r="D29" t="n">
         <v>3367</v>
       </c>
       <c r="E29" t="n">
-        <v>9920</v>
+        <v>11384</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>13055</v>
+        <v>13189</v>
       </c>
       <c r="D30" t="n">
         <v>3202</v>
       </c>
       <c r="E30" t="n">
-        <v>9853</v>
+        <v>9987</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1316,13 +1316,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12684</v>
+        <v>14148</v>
       </c>
       <c r="D31" t="n">
         <v>3186</v>
       </c>
       <c r="E31" t="n">
-        <v>9498</v>
+        <v>10962</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>13030</v>
+        <v>14480</v>
       </c>
       <c r="D33" t="n">
         <v>3063</v>
       </c>
       <c r="E33" t="n">
-        <v>9967</v>
+        <v>11417</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>

--- a/samples_wind/plot/date_availability_forsampels.xlsx
+++ b/samples_wind/plot/date_availability_forsampels.xlsx
@@ -478,19 +478,19 @@
         <v>8845</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>8845</v>
       </c>
       <c r="E2" t="n">
-        <v>8845</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -507,19 +507,19 @@
         <v>8803</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>8803</v>
       </c>
       <c r="E3" t="n">
-        <v>8803</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -536,19 +536,19 @@
         <v>8782</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>8782</v>
       </c>
       <c r="E4" t="n">
-        <v>8782</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041507</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -565,19 +565,19 @@
         <v>8748</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>8748</v>
       </c>
       <c r="E5" t="n">
-        <v>8748</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -594,19 +594,19 @@
         <v>8741</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>8741</v>
       </c>
       <c r="E6" t="n">
-        <v>8741</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -623,19 +623,19 @@
         <v>8688</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>8688</v>
       </c>
       <c r="E7" t="n">
-        <v>8688</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -652,19 +652,19 @@
         <v>8675</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>8675</v>
       </c>
       <c r="E8" t="n">
-        <v>8675</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -681,19 +681,19 @@
         <v>8635</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8635</v>
       </c>
       <c r="E9" t="n">
-        <v>8635</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -710,19 +710,19 @@
         <v>8420</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>8420</v>
       </c>
       <c r="E10" t="n">
-        <v>8420</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -739,19 +739,19 @@
         <v>8585</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8585</v>
       </c>
       <c r="E11" t="n">
-        <v>8585</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -768,19 +768,19 @@
         <v>8615</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>8615</v>
       </c>
       <c r="E12" t="n">
-        <v>8615</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041507</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -797,19 +797,19 @@
         <v>8120</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>8120</v>
       </c>
       <c r="E13" t="n">
-        <v>8120</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -826,19 +826,19 @@
         <v>8573</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8573</v>
       </c>
       <c r="E14" t="n">
-        <v>8573</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -855,19 +855,19 @@
         <v>8583</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>8583</v>
       </c>
       <c r="E15" t="n">
-        <v>8583</v>
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -884,19 +884,19 @@
         <v>8550</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>8550</v>
       </c>
       <c r="E16" t="n">
-        <v>8550</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -913,19 +913,19 @@
         <v>8580</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8580</v>
       </c>
       <c r="E17" t="n">
-        <v>8580</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -942,19 +942,19 @@
         <v>8348</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>8348</v>
       </c>
       <c r="E18" t="n">
-        <v>8348</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -971,19 +971,19 @@
         <v>8782</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8782</v>
       </c>
       <c r="E19" t="n">
-        <v>8782</v>
+        <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -1000,19 +1000,19 @@
         <v>8870</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>8870</v>
       </c>
       <c r="E20" t="n">
-        <v>8870</v>
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041507</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -1029,19 +1029,19 @@
         <v>8847</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>8847</v>
       </c>
       <c r="E21" t="n">
-        <v>8847</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202101041607</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -1058,19 +1058,19 @@
         <v>7158</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>7158</v>
       </c>
       <c r="E22" t="n">
-        <v>7158</v>
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202103291107</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -1087,19 +1087,19 @@
         <v>12698</v>
       </c>
       <c r="D23" t="n">
-        <v>2717</v>
+        <v>12698</v>
       </c>
       <c r="E23" t="n">
-        <v>9981</v>
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>202004010100.0</t>
+          <t>202004010100</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>202008031700.0</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -1116,19 +1116,19 @@
         <v>14837</v>
       </c>
       <c r="D24" t="n">
-        <v>3367</v>
+        <v>13373</v>
       </c>
       <c r="E24" t="n">
-        <v>11470</v>
+        <v>1464</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>202004010100.0</t>
+          <t>202004010100</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>202008312300.0</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -1145,19 +1145,19 @@
         <v>14804</v>
       </c>
       <c r="D25" t="n">
-        <v>3367</v>
+        <v>13340</v>
       </c>
       <c r="E25" t="n">
-        <v>11437</v>
+        <v>1464</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>202004010100.0</t>
+          <t>202004010100</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>202008312300.0</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -1174,19 +1174,19 @@
         <v>14574</v>
       </c>
       <c r="D26" t="n">
-        <v>3055</v>
+        <v>13110</v>
       </c>
       <c r="E26" t="n">
-        <v>11519</v>
+        <v>1464</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>202004010100.0</t>
+          <t>202004010100</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>202008312300.0</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -1203,19 +1203,19 @@
         <v>11780</v>
       </c>
       <c r="D27" t="n">
-        <v>2691</v>
+        <v>11780</v>
       </c>
       <c r="E27" t="n">
-        <v>9089</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>202004010100.0</t>
+          <t>202004010100</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>202008021400.0</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -1232,19 +1232,19 @@
         <v>14544</v>
       </c>
       <c r="D28" t="n">
-        <v>3367</v>
+        <v>13080</v>
       </c>
       <c r="E28" t="n">
-        <v>11177</v>
+        <v>1464</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>202004010100.0</t>
+          <t>202004010100</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>202008312300.0</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -1261,19 +1261,19 @@
         <v>14751</v>
       </c>
       <c r="D29" t="n">
-        <v>3367</v>
+        <v>13287</v>
       </c>
       <c r="E29" t="n">
-        <v>11384</v>
+        <v>1464</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>202004010100.0</t>
+          <t>202004010100</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>202008312300.0</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -1290,19 +1290,19 @@
         <v>13189</v>
       </c>
       <c r="D30" t="n">
-        <v>3202</v>
+        <v>13055</v>
       </c>
       <c r="E30" t="n">
-        <v>9987</v>
+        <v>134</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>202004010100.0</t>
+          <t>202004010100</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>202008312300.0</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -1319,19 +1319,19 @@
         <v>14148</v>
       </c>
       <c r="D31" t="n">
-        <v>3186</v>
+        <v>12684</v>
       </c>
       <c r="E31" t="n">
-        <v>10962</v>
+        <v>1464</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>202004010100.0</t>
+          <t>202004010100</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>202008312300.0</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -1348,19 +1348,19 @@
         <v>7049</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>7049</v>
       </c>
       <c r="E32" t="n">
-        <v>7047</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>202007020946.0</t>
+          <t>202007020946</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>202007021046.0</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>
@@ -1377,19 +1377,19 @@
         <v>14480</v>
       </c>
       <c r="D33" t="n">
-        <v>3063</v>
+        <v>13030</v>
       </c>
       <c r="E33" t="n">
-        <v>11417</v>
+        <v>1450</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>202004010100.0</t>
+          <t>202004010100</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>202008221500.0</t>
+          <t>202112262309</t>
         </is>
       </c>
     </row>

--- a/samples_wind/plot/date_availability_forsampels.xlsx
+++ b/samples_wind/plot/date_availability_forsampels.xlsx
@@ -1123,12 +1123,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>202004010100</t>
+          <t>202004010100.0</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>202112262309</t>
+          <t>202112262309.0</t>
         </is>
       </c>
     </row>
@@ -1152,12 +1152,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>202004010100</t>
+          <t>202004010100.0</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>202112262309</t>
+          <t>202112262309.0</t>
         </is>
       </c>
     </row>
@@ -1181,12 +1181,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>202004010100</t>
+          <t>202004010100.0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>202112262309</t>
+          <t>202112262309.0</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>202004010100</t>
+          <t>202004010100.0</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>202112262309</t>
+          <t>202112262309.0</t>
         </is>
       </c>
     </row>
@@ -1268,12 +1268,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>202004010100</t>
+          <t>202004010100.0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>202112262309</t>
+          <t>202112262309.0</t>
         </is>
       </c>
     </row>
@@ -1297,12 +1297,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>202004010100</t>
+          <t>202004010100.0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>202112262309</t>
+          <t>202112262309.0</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1326,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>202004010100</t>
+          <t>202004010100.0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>202112262309</t>
+          <t>202112262309.0</t>
         </is>
       </c>
     </row>
@@ -1384,12 +1384,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>202004010100</t>
+          <t>202004010100.0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>202112262309</t>
+          <t>202112262309.0</t>
         </is>
       </c>
     </row>
